--- a/static/ATF_2.xlsx
+++ b/static/ATF_2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Универ\diploma-work\excel-parser-server\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E69699B-6387-479A-8006-F37EFB7A2409}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -995,16 +994,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>МАТЕМАТИЧЕСКИЕ МОДЕЛИ ИНФ.ПР. И УПРАВЛЕНИЯ  (лек.) а. 108/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Физика  (пр.) а. 510/2</t>
     </r>
   </si>
@@ -1226,6 +1215,552 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Ф И З И К А (лек.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Доц. Шульга А.В.  а. 301/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Физика (лаб.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 305/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Иностранный язык (факультатив)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 513</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Математика (пр.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 528</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>СИСТЕМНЫЙ АНАЛИЗ И ИССЛЕДОВ.ОПЕРАЦИЙ (лек.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Ст. пр. Плиско И.Г. а. 410/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>МАТЕМАТИКА (лек.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Доц. Старовойтова Е.Л. а. 508</t>
+    </r>
+  </si>
+  <si>
+    <t>Ф               И            З             И           К           А      (лек.)
+Проф. Хомченко А.В.         а. 301/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ФИЗИЧ.ОСНОВЫ ИЗМЕРЕНИЙ (лек.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Ст. пр. Прокопенко Е.Н. а. 412/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ТЕХНОЛ.КОНСТР.МАТЕРИАЛОВ (лек.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+доц. Хабибуллин А.И.а.140</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Пер. технич. литературы (факультатив) (пр.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 513</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Математика (пр.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 429</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>МЕТРОЛОГИЯ, СТАНД.И СЕРТ. (лек.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Доц. Сергеева О.С.а. 410/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ТЕОРЕТ. ОСНОВЫ ЭЛЕКТРОТЕХ. (лек.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Доц. Гоголинский В.Ф. а. 510/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Физика (лаб.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 305/2, 310/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Физика (пр.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 307/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ПРОЕКТИРОВАНИЕ ЭЛЕКТРОМЕХАНИЧЕСКИХ УСТРОЙСТВ (лек.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Доц. Попов В.Б.    а. 213/2</t>
+    </r>
+  </si>
+  <si>
+    <t>ЭТМ (лаб.) а. 212/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ТЕОРЕТИЧЕСКИЕ ОСНОВЫ ЭЛЕКТРОТЕХНИКИ (лек.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Ст. пр. Герасименко Н.В. а. 335</t>
+    </r>
+  </si>
+  <si>
+    <t>ЭЛЕКТРИЧЕСКИЕ МАШИНЫ (лек.)
+Доц. Попов В.Б. а. 111/2</t>
+  </si>
+  <si>
+    <t>Э  К  О   Н   О   М  И  Ч  Е  С  К  А  Я    Т   Е  О  Р  И  Я   (лек.)
+Ст. пр. Курсова И.Я.  а. 509   11 раз</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ПОЛУПРОВОДНИКОВАЯ СХЕМОТЕХНИКА (лек.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Ст. пр. Шарков В.Н.   а. 202/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ТЕОРИЯ АВТОМАТИЧЕСКОГО УПРАВЛЕНИЯ (лек.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Ст. пр. Стасенко И.С. а. 202/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Физика  (лаб.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 305/2, 310/2</t>
+    </r>
+  </si>
+  <si>
+    <t>ППСТ (лаб.) а. 213/2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ПЭУ (пр.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 213/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ППСТ (лаб.) а. 213/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Физика (лаб.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 305/2,310/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ПЭУ (пр.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 207/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ТОЭ (лаб.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 405/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Физика (пр.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 304/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ТАУ (лаб.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 207/2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ППСТ (лаб.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+а. 207/2</t>
+    </r>
+  </si>
+  <si>
+    <t>МАТЕМАТИЧЕСКИЕ МОДЕЛИ ИНФ.ПР. И УПРАВЛЕНИЯ  (лек.) а. 108/2</t>
+  </si>
+  <si>
+    <r>
       <t>МАТЕМАТИЧ. МОДЕЛИ ИНФОРМАЦИОН.ПРОЦЕССОВ И УПРАВЛЕНИЯ (лек.)</t>
     </r>
     <r>
@@ -1237,561 +1772,13 @@
       </rPr>
       <t xml:space="preserve">
 Доц. Якимов А.И.  а. 115/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ф И З И К А (лек.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Доц. Шульга А.В.  а. 301/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Физика (лаб.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 305/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Иностранный язык (факультатив)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 513</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Математика (пр.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 528</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>СИСТЕМНЫЙ АНАЛИЗ И ИССЛЕДОВ.ОПЕРАЦИЙ (лек.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Ст. пр. Плиско И.Г. а. 410/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>МАТЕМАТИКА (лек.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Доц. Старовойтова Е.Л. а. 508</t>
-    </r>
-  </si>
-  <si>
-    <t>Ф               И            З             И           К           А      (лек.)
-Проф. Хомченко А.В.         а. 301/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ФИЗИЧ.ОСНОВЫ ИЗМЕРЕНИЙ (лек.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Ст. пр. Прокопенко Е.Н. а. 412/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ТЕХНОЛ.КОНСТР.МАТЕРИАЛОВ (лек.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-доц. Хабибуллин А.И.а.140</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Пер. технич. литературы (факультатив) (пр.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 513</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Математика (пр.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 429</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>МЕТРОЛОГИЯ, СТАНД.И СЕРТ. (лек.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Доц. Сергеева О.С.а. 410/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ТЕОРЕТ. ОСНОВЫ ЭЛЕКТРОТЕХ. (лек.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Доц. Гоголинский В.Ф. а. 510/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Физика (лаб.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 305/2, 310/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Физика (пр.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 307/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ПРОЕКТИРОВАНИЕ ЭЛЕКТРОМЕХАНИЧЕСКИХ УСТРОЙСТВ (лек.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Доц. Попов В.Б.    а. 213/2</t>
-    </r>
-  </si>
-  <si>
-    <t>ЭТМ (лаб.) а. 212/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ТЕОРЕТИЧЕСКИЕ ОСНОВЫ ЭЛЕКТРОТЕХНИКИ (лек.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Ст. пр. Герасименко Н.В. а. 335</t>
-    </r>
-  </si>
-  <si>
-    <t>ЭЛЕКТРИЧЕСКИЕ МАШИНЫ (лек.)
-Доц. Попов В.Б. а. 111/2</t>
-  </si>
-  <si>
-    <t>Э  К  О   Н   О   М  И  Ч  Е  С  К  А  Я    Т   Е  О  Р  И  Я   (лек.)
-Ст. пр. Курсова И.Я.  а. 509   11 раз</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ПОЛУПРОВОДНИКОВАЯ СХЕМОТЕХНИКА (лек.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Ст. пр. Шарков В.Н.   а. 202/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ТЕОРИЯ АВТОМАТИЧЕСКОГО УПРАВЛЕНИЯ (лек.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-Ст. пр. Стасенко И.С. а. 202/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Физика  (лаб.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 305/2, 310/2</t>
-    </r>
-  </si>
-  <si>
-    <t>ППСТ (лаб.) а. 213/2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ПЭУ (пр.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 213/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ППСТ (лаб.) а. 213/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Физика (лаб.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 305/2,310/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ПЭУ (пр.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 207/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ТОЭ (лаб.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 405/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Физика (пр.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 304/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ТАУ (лаб.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 207/2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ППСТ (лаб.)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-а. 207/2</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2105,7 +2092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2187,6 +2174,270 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2202,30 +2453,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2241,260 +2477,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2652,23 +2648,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2704,23 +2683,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2896,11 +2858,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E44" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:J51"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2919,54 +2881,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
     </row>
     <row r="2" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
     </row>
     <row r="3" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2975,17 +2937,17 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2993,16 +2955,16 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="33"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -3011,54 +2973,54 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="42"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="125"/>
     </row>
     <row r="7" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="121"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="43" t="s">
+      <c r="D7" s="127"/>
+      <c r="E7" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="43" t="s">
+      <c r="F7" s="127"/>
+      <c r="G7" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="83" t="s">
+      <c r="H7" s="127"/>
+      <c r="I7" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="84"/>
+      <c r="J7" s="129"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="8" t="s">
         <v>13</v>
       </c>
@@ -3074,16 +3036,16 @@
       <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="81" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="85" t="s">
+      <c r="H8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="86" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="82" t="s">
+      <c r="J8" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="10" t="s">
@@ -3097,18 +3059,18 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="88"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
+      <c r="C9" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="36"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="9" t="s">
         <v>21</v>
       </c>
@@ -3117,18 +3079,18 @@
       <c r="J9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
     </row>
     <row r="10" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="57"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="7"/>
       <c r="H10" s="9" t="s">
         <v>21</v>
@@ -3137,26 +3099,26 @@
         <v>22</v>
       </c>
       <c r="J10" s="7"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
     </row>
     <row r="11" spans="1:14" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="92" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="53"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="3" t="s">
         <v>25</v>
       </c>
@@ -3171,700 +3133,700 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="61"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="91"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="4"/>
       <c r="N12" s="6"/>
     </row>
     <row r="13" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="50" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="114"/>
+      <c r="E13" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="94"/>
+      <c r="G13" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="36"/>
+      <c r="I13" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="76" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="87"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="75"/>
+    </row>
+    <row r="15" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="87"/>
+      <c r="B15" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+    </row>
+    <row r="16" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="94"/>
+      <c r="I16" s="93" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="94"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+    </row>
+    <row r="17" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
+      <c r="B17" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+    </row>
+    <row r="18" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="94"/>
+      <c r="E18" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="85"/>
+    </row>
+    <row r="19" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="94"/>
+      <c r="E19" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="94"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+    </row>
+    <row r="20" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="102"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="94"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="108"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+    </row>
+    <row r="21" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="102"/>
+      <c r="B21" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="94"/>
+      <c r="E21" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="89" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="102"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="94"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="90"/>
+    </row>
+    <row r="23" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="102"/>
+      <c r="B23" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="46"/>
-      <c r="G13" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="J13" s="88"/>
-      <c r="K13" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="51"/>
-    </row>
-    <row r="15" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50" t="s">
+      <c r="D23" s="36"/>
+      <c r="E23" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="N23" s="74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="102"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="75"/>
+    </row>
+    <row r="25" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="102"/>
+      <c r="B25" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-    </row>
-    <row r="16" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-    </row>
-    <row r="17" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-    </row>
-    <row r="18" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-    </row>
-    <row r="19" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-    </row>
-    <row r="20" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-    </row>
-    <row r="21" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="N21" s="37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="39"/>
-    </row>
-    <row r="23" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="87" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="N23" s="50" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="51"/>
-    </row>
-    <row r="25" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="88"/>
+      <c r="C25" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" s="36"/>
       <c r="E25" s="7"/>
       <c r="F25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
       <c r="I25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="7"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
     </row>
     <row r="26" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="18" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="57"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
       <c r="I26" s="7"/>
       <c r="J26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
     </row>
     <row r="27" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="92" t="s">
+      <c r="A27" s="102"/>
+      <c r="B27" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="128"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="16"/>
     </row>
     <row r="28" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="129"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
     </row>
     <row r="29" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="106"/>
       <c r="G29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="87" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="88"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
+      <c r="H29" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" s="36"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
     </row>
     <row r="30" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="45" t="s">
+      <c r="A30" s="102"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="123" t="s">
-        <v>135</v>
+      <c r="F30" s="94"/>
+      <c r="G30" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="H30" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="89"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
     </row>
     <row r="31" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="50" t="s">
+      <c r="A31" s="102"/>
+      <c r="B31" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="88"/>
-      <c r="G31" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="37" t="s">
+      <c r="C31" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="L31" s="34" t="s">
+      <c r="L31" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="M31" s="34" t="s">
+      <c r="M31" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="34" t="s">
+      <c r="N31" s="91" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="122"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
     </row>
     <row r="33" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="50" t="s">
+      <c r="A33" s="102"/>
+      <c r="B33" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="D33" s="88"/>
-      <c r="E33" s="45" t="s">
+      <c r="C33" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="109" t="s">
-        <v>137</v>
-      </c>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
-      <c r="J33" s="111"/>
-      <c r="K33" s="50" t="s">
+      <c r="F33" s="94"/>
+      <c r="G33" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="L33" s="63" t="s">
+      <c r="L33" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="M33" s="63" t="s">
+      <c r="M33" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="N33" s="63" t="s">
+      <c r="N33" s="76" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="45" t="s">
+      <c r="A34" s="102"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="46"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
-      <c r="N34" s="64"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
     </row>
     <row r="35" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="102"/>
+      <c r="B35" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="46"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
     </row>
     <row r="36" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="45" t="s">
+      <c r="A36" s="102"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="46"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
     </row>
     <row r="37" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="102"/>
+      <c r="B37" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="88"/>
-      <c r="E37" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="45" t="s">
+      <c r="C37" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="36"/>
+      <c r="E37" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="36"/>
+      <c r="G37" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="H37" s="46"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
     </row>
     <row r="38" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="45" t="s">
+      <c r="A38" s="103"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
+      <c r="J38" s="94"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
     </row>
     <row r="39" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="109" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="110"/>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="110"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
+      <c r="C39" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
     </row>
     <row r="40" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
     </row>
     <row r="41" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="102"/>
+      <c r="B41" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="88"/>
-      <c r="E41" s="87" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="88"/>
-      <c r="G41" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="37" t="s">
+      <c r="C41" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="L41" s="34" t="s">
+      <c r="L41" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="M41" s="34" t="s">
+      <c r="M41" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="N41" s="34" t="s">
+      <c r="N41" s="91" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="68"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="90"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="92"/>
     </row>
     <row r="43" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="68"/>
-      <c r="B43" s="50" t="s">
+      <c r="A43" s="102"/>
+      <c r="B43" s="74" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
@@ -3873,63 +3835,63 @@
       <c r="D43" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="F43" s="88"/>
+      <c r="E43" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="36"/>
       <c r="G43" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="I43" s="87" t="s">
-        <v>147</v>
-      </c>
-      <c r="J43" s="88"/>
-      <c r="K43" s="50" t="s">
+      <c r="H43" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="J43" s="36"/>
+      <c r="K43" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="L43" s="63" t="s">
+      <c r="L43" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="M43" s="63" t="s">
+      <c r="M43" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="N43" s="50" t="s">
+      <c r="N43" s="74" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="68"/>
-      <c r="B44" s="51"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E44" s="89"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="123" t="s">
-        <v>135</v>
+      <c r="E44" s="37"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I44" s="89"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="64"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="51"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="75"/>
     </row>
     <row r="45" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="68"/>
-      <c r="B45" s="50" t="s">
+      <c r="A45" s="102"/>
+      <c r="B45" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="104"/>
+      <c r="C45" s="32"/>
       <c r="D45" s="9" t="s">
         <v>78</v>
       </c>
@@ -3940,551 +3902,744 @@
         <v>86</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="I45" s="87" t="s">
-        <v>148</v>
-      </c>
-      <c r="J45" s="88"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
+      <c r="H45" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="J45" s="36"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
     </row>
     <row r="46" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="107"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="11" t="s">
         <v>86</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="123" t="s">
-        <v>135</v>
+      <c r="G46" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
     </row>
     <row r="47" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="105" t="s">
+      <c r="A47" s="102"/>
+      <c r="B47" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
       <c r="G47" s="19"/>
       <c r="H47" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="54"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
     </row>
     <row r="48" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="69"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="82" t="s">
+      <c r="A48" s="103"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="28" t="s">
         <v>80</v>
       </c>
       <c r="H48" s="7"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="83"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
+      <c r="M48" s="85"/>
+      <c r="N48" s="85"/>
     </row>
     <row r="49" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="74" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>88</v>
       </c>
       <c r="D49" s="16"/>
-      <c r="E49" s="115" t="s">
+      <c r="E49" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="F49" s="116"/>
-      <c r="G49" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="H49" s="121"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
     </row>
     <row r="50" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
-      <c r="B50" s="51"/>
+      <c r="A50" s="131"/>
+      <c r="B50" s="75"/>
       <c r="C50" s="7"/>
       <c r="D50" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
     </row>
     <row r="51" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
-      <c r="B51" s="50" t="s">
+      <c r="A51" s="131"/>
+      <c r="B51" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" s="88"/>
-      <c r="E51" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="F51" s="88"/>
-      <c r="G51" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="H51" s="88"/>
-      <c r="I51" s="45" t="s">
+      <c r="C51" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="36"/>
+      <c r="I51" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="J51" s="46"/>
-      <c r="K51" s="34" t="s">
+      <c r="J51" s="94"/>
+      <c r="K51" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="L51" s="34" t="s">
+      <c r="L51" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="M51" s="34" t="s">
+      <c r="M51" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="N51" s="34" t="s">
+      <c r="N51" s="91" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="45" t="s">
+      <c r="A52" s="131"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="J52" s="46"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
+      <c r="J52" s="94"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="92"/>
     </row>
     <row r="53" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
-      <c r="B53" s="50" t="s">
+      <c r="A53" s="131"/>
+      <c r="B53" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="113" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" s="114"/>
+      <c r="E53" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="46"/>
-      <c r="E53" s="45" t="s">
+      <c r="F53" s="94"/>
+      <c r="G53" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="J53" s="36"/>
+      <c r="K53" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="L53" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="123" t="s">
-        <v>142</v>
-      </c>
-      <c r="H53" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="I53" s="87" t="s">
-        <v>149</v>
-      </c>
-      <c r="J53" s="88"/>
-      <c r="K53" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="L53" s="50" t="s">
+      <c r="M53" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="N53" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="M53" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="N53" s="63" t="s">
+    </row>
+    <row r="54" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="131"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="94"/>
+      <c r="E54" s="93" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="45" t="s">
+      <c r="F54" s="94"/>
+      <c r="G54" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="37"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+    </row>
+    <row r="55" spans="1:14" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="131"/>
+      <c r="B55" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="123" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54" s="123" t="s">
-        <v>142</v>
-      </c>
-      <c r="I54" s="89"/>
-      <c r="J54" s="90"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-    </row>
-    <row r="55" spans="1:14" ht="7.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
-      <c r="B55" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="94"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="53"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="69"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
     </row>
     <row r="56" spans="1:14" ht="6.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="95"/>
-      <c r="J56" s="61"/>
+      <c r="A56" s="131"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="72"/>
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
       <c r="N56" s="15"/>
     </row>
     <row r="57" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
-      <c r="B57" s="50" t="s">
+      <c r="A57" s="131"/>
+      <c r="B57" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="88"/>
-      <c r="G57" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="H57" s="88"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="36"/>
+      <c r="G57" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="H57" s="36"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
     </row>
     <row r="58" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="90"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
+      <c r="A58" s="132"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="82"/>
+      <c r="J58" s="83"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
+      <c r="M58" s="85"/>
+      <c r="N58" s="85"/>
     </row>
     <row r="59" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="80"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="9" t="s">
+      <c r="H59" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I59" s="80"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="84"/>
+      <c r="L59" s="84"/>
+      <c r="M59" s="84"/>
+      <c r="N59" s="84"/>
+    </row>
+    <row r="60" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="87"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I60" s="82"/>
+      <c r="J60" s="83"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="85"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="85"/>
+    </row>
+    <row r="61" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="87"/>
+      <c r="B61" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="80"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" s="32"/>
+      <c r="I61" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="54"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="58"/>
-      <c r="L59" s="58"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-    </row>
-    <row r="60" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I60" s="56"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-    </row>
-    <row r="61" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
-      <c r="B61" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="H61" s="104"/>
-      <c r="I61" s="52" t="s">
+      <c r="J61" s="69"/>
+      <c r="K61" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="J61" s="53"/>
-      <c r="K61" s="37" t="s">
+      <c r="L61" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="M61" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="N61" s="91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="87"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I62" s="70"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+      <c r="M62" s="92"/>
+      <c r="N62" s="92"/>
+    </row>
+    <row r="63" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="87"/>
+      <c r="B63" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="80"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="L61" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="M61" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="N61" s="34" t="s">
+      <c r="H63" s="94"/>
+      <c r="I63" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="J63" s="36"/>
+      <c r="K63" s="74" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I62" s="60"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-    </row>
-    <row r="63" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
-      <c r="B63" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="45" t="s">
+      <c r="L63" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="H63" s="46"/>
-      <c r="I63" s="87" t="s">
-        <v>150</v>
-      </c>
-      <c r="J63" s="88"/>
-      <c r="K63" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="L63" s="50" t="s">
+      <c r="M63" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="M63" s="63" t="s">
+      <c r="N63" s="76" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="87"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="79"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="75"/>
+      <c r="L64" s="75"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="77"/>
+    </row>
+    <row r="65" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="87"/>
+      <c r="B65" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="80"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="81"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
+    </row>
+    <row r="66" spans="1:14" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="88"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="82"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="82"/>
+      <c r="J66" s="83"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="85"/>
+      <c r="M66" s="85"/>
+      <c r="N66" s="85"/>
+    </row>
+    <row r="67" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="23" t="s">
         <v>107</v>
-      </c>
-      <c r="N63" s="63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="51"/>
-      <c r="M64" s="64"/>
-      <c r="N64" s="64"/>
-    </row>
-    <row r="65" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
-      <c r="B65" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="128"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-    </row>
-    <row r="66" spans="1:14" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="129"/>
-      <c r="I66" s="56"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-    </row>
-    <row r="67" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="74"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="23" t="s">
-        <v>108</v>
       </c>
       <c r="D67" s="22"/>
       <c r="E67" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="H67" s="77"/>
+      <c r="H67" s="60"/>
       <c r="I67" s="22"/>
       <c r="J67" s="22"/>
       <c r="K67" s="22"/>
       <c r="L67" s="22"/>
-      <c r="M67" s="77" t="s">
+      <c r="M67" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="N67" s="61"/>
+    </row>
+    <row r="68" spans="1:14" ht="9.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="N67" s="78"/>
-    </row>
-    <row r="68" spans="1:14" ht="9.4499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="75"/>
-      <c r="B68" s="75"/>
-      <c r="C68" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F68" s="21"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="32"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="63"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="80"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="264">
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="E37:F38"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="E43:F44"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="E57:F58"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="G23:J24"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="G31:J32"/>
-    <mergeCell ref="G33:J34"/>
-    <mergeCell ref="C39:J40"/>
-    <mergeCell ref="G41:J42"/>
-    <mergeCell ref="G49:J50"/>
-    <mergeCell ref="G51:H52"/>
-    <mergeCell ref="G57:H58"/>
-    <mergeCell ref="I13:J14"/>
-    <mergeCell ref="I27:J28"/>
-    <mergeCell ref="I29:J30"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I43:J44"/>
-    <mergeCell ref="I45:J46"/>
-    <mergeCell ref="I53:J54"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="E27:F28"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E21:J22"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N35:N36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="I47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="A49:A58"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="L51:L52"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="N51:N52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="A59:A66"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="E59:F60"/>
+    <mergeCell ref="I59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="M59:M60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:F62"/>
+    <mergeCell ref="I61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="N61:N62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:F64"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="L63:L64"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N63:N64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:F66"/>
+    <mergeCell ref="I65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="M65:M66"/>
+    <mergeCell ref="N65:N66"/>
+    <mergeCell ref="G65:H66"/>
+    <mergeCell ref="I63:J64"/>
     <mergeCell ref="A67:A68"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="G67:H67"/>
@@ -4509,223 +4664,30 @@
     <mergeCell ref="C55:J56"/>
     <mergeCell ref="E19:F20"/>
     <mergeCell ref="K63:K64"/>
-    <mergeCell ref="L63:L64"/>
-    <mergeCell ref="M63:M64"/>
-    <mergeCell ref="N63:N64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:F66"/>
-    <mergeCell ref="I65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="M65:M66"/>
-    <mergeCell ref="N65:N66"/>
-    <mergeCell ref="G65:H66"/>
-    <mergeCell ref="I63:J64"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="A59:A66"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="E59:F60"/>
-    <mergeCell ref="I59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="M59:M60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:F62"/>
-    <mergeCell ref="I61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="N61:N62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:F64"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:D58"/>
+    <mergeCell ref="E31:F32"/>
+    <mergeCell ref="E37:F38"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="E57:F58"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="G23:J24"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="G31:J32"/>
+    <mergeCell ref="G33:J34"/>
+    <mergeCell ref="C39:J40"/>
+    <mergeCell ref="G41:J42"/>
+    <mergeCell ref="G49:J50"/>
+    <mergeCell ref="G51:H52"/>
+    <mergeCell ref="G57:H58"/>
+    <mergeCell ref="I13:J14"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I43:J44"/>
+    <mergeCell ref="I45:J46"/>
+    <mergeCell ref="I53:J54"/>
     <mergeCell ref="I57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="N51:N52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="I47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="A49:A58"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="L41:L42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N35:N36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E21:J22"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A9:A18"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
